--- a/Indian Coordinates.xlsx
+++ b/Indian Coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS using PY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parulpandey/Desktop/Covid India/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D5A47C-B995-4BB4-A991-57C76A5AEB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F00E6-4B59-C14B-A0F8-F070259AF1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E9B2B5C5-5E08-8442-9075-1EE79A76BD21}"/>
+    <workbookView xWindow="10360" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{E9B2B5C5-5E08-8442-9075-1EE79A76BD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -524,13 +532,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5">
+    <row r="1" spans="1:3" ht="29">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -541,7 +549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -552,7 +560,7 @@
         <v>92.735982620000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -563,7 +571,7 @@
         <v>78.57002559</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -574,7 +582,7 @@
         <v>93.61660071</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -585,7 +593,7 @@
         <v>94.216667439999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -596,7 +604,7 @@
         <v>87.479972700000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -607,7 +615,7 @@
         <v>76.780005650000007</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +626,7 @@
         <v>82.159987340000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5">
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -629,7 +637,7 @@
         <v>73.016617800000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5">
+    <row r="10" spans="1:3" ht="18">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -640,7 +648,7 @@
         <v>77.230004030000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5">
+    <row r="11" spans="1:3" ht="18">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -651,7 +659,7 @@
         <v>73.818000650000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.5">
+    <row r="12" spans="1:3" ht="18">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -662,7 +670,7 @@
         <v>77.019991009999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.5">
+    <row r="13" spans="1:3" ht="18">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -673,7 +681,7 @@
         <v>77.166597039999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.5">
+    <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -684,7 +692,7 @@
         <v>76.239999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.5">
+    <row r="15" spans="1:3" ht="18">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -695,7 +703,7 @@
         <v>86.41998572</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.5">
+    <row r="16" spans="1:3" ht="18">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -706,7 +714,7 @@
         <v>76.919997109999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.5">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -717,7 +725,7 @@
         <v>76.569992630000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.5">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -728,7 +736,7 @@
         <v>72.636867170000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.5">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -739,7 +747,7 @@
         <v>76.130019489999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.5">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -750,7 +758,7 @@
         <v>73.160174929999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.5">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -761,7 +769,7 @@
         <v>93.95001705</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.5">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -772,7 +780,7 @@
         <v>91.880014200000005</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.5">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -783,7 +791,7 @@
         <v>92.720014610000007</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.5">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -794,7 +802,7 @@
         <v>94.116570190000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.5">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -805,7 +813,7 @@
         <v>85.900017460000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.5">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -816,7 +824,7 @@
         <v>79.830000369999993</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.5">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -827,7 +835,7 @@
         <v>75.980002810000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.5">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -838,7 +846,7 @@
         <v>74.639981239999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.5">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -849,7 +857,7 @@
         <v>88.616647499999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.5">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -861,7 +869,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="17.5">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -873,7 +881,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="17.5">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -884,7 +892,7 @@
         <v>91.279999140000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.5">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -895,7 +903,7 @@
         <v>78.050005650000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.5">
+    <row r="34" spans="1:3" ht="18">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -906,7 +914,7 @@
         <v>78.050005650000003</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.5">
+    <row r="35" spans="1:3" ht="18">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -917,7 +925,7 @@
         <v>88.329946649999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.5">
+    <row r="36" spans="1:3" ht="18">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
